--- a/data/NG_PROD_SUM_DC_NUS_MMCF_M.xlsx
+++ b/data/NG_PROD_SUM_DC_NUS_MMCF_M.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5BD97D-9AC7-7A46-BFDF-1E7CE0F132AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="16140" windowHeight="10000" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -12,6 +13,14 @@
   </sheets>
   <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,22 +60,22 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>5/2018</t>
+    <t>5/2020</t>
   </si>
   <si>
-    <t>01/15/1973</t>
+    <t>1/15/1973</t>
   </si>
   <si>
     <t>Release Date:</t>
   </si>
   <si>
-    <t>07/31/2018</t>
+    <t>7/31/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>08/31/2018</t>
+    <t>8/31/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -96,7 +105,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>07/27/2018 10:20:48 AM</t>
+    <t>7/29/2020 8:36:58 PM</t>
   </si>
   <si>
     <t>Data 1: U.S. Natural Gas Gross Withdrawals and Production</t>
@@ -693,7 +702,7 @@
   </sheetPr>
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -835,7 +844,7 @@
     <hyperlink ref="B7" location="'Data 1'!A1" display="Data 1"/>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C14" r:id="rId2" display="http://www.eia.gov/"/>
-    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003_"/>
+    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003__x0003_IsUserCustomControl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -848,9 +857,9 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:M549"/>
+  <dimension ref="A1:M573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -871,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
@@ -14994,37 +15003,37 @@
         <v>42384</v>
       </c>
       <c r="B520">
-        <v>2828428</v>
+        <v>2823104</v>
       </c>
       <c r="C520">
-        <v>757739</v>
+        <v>638346</v>
       </c>
       <c r="D520">
-        <v>577202</v>
+        <v>575737</v>
       </c>
       <c r="E520">
-        <v>1400249</v>
+        <v>1515623</v>
       </c>
       <c r="F520">
-        <v>93238</v>
+        <v>93398</v>
       </c>
       <c r="G520">
-        <v>322378</v>
+        <v>323332</v>
       </c>
       <c r="H520">
-        <v>21316</v>
+        <v>22548</v>
       </c>
       <c r="I520">
         <v>41849</v>
       </c>
       <c r="J520">
-        <v>2442885</v>
+        <v>2435375</v>
       </c>
       <c r="K520">
-        <v>155816</v>
+        <v>155035</v>
       </c>
       <c r="L520">
-        <v>2287069</v>
+        <v>2280340</v>
       </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.15">
@@ -15032,37 +15041,37 @@
         <v>42415</v>
       </c>
       <c r="B521">
-        <v>2656151</v>
+        <v>2653842</v>
       </c>
       <c r="C521">
-        <v>719585</v>
+        <v>616281</v>
       </c>
       <c r="D521">
-        <v>525279</v>
+        <v>524352</v>
       </c>
       <c r="E521">
-        <v>1324254</v>
+        <v>1426005</v>
       </c>
       <c r="F521">
-        <v>87032</v>
+        <v>87204</v>
       </c>
       <c r="G521">
-        <v>298408</v>
+        <v>299216</v>
       </c>
       <c r="H521">
-        <v>17839</v>
+        <v>18824</v>
       </c>
       <c r="I521">
         <v>25281</v>
       </c>
       <c r="J521">
-        <v>2314623</v>
+        <v>2310521</v>
       </c>
       <c r="K521">
-        <v>147635</v>
+        <v>147087</v>
       </c>
       <c r="L521">
-        <v>2166988</v>
+        <v>2163435</v>
       </c>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.15">
@@ -15070,37 +15079,37 @@
         <v>42444</v>
       </c>
       <c r="B522">
-        <v>2828024</v>
+        <v>2824983</v>
       </c>
       <c r="C522">
-        <v>768294</v>
+        <v>672249</v>
       </c>
       <c r="D522">
-        <v>561420</v>
+        <v>559755</v>
       </c>
       <c r="E522">
-        <v>1404930</v>
+        <v>1499248</v>
       </c>
       <c r="F522">
-        <v>93380</v>
+        <v>93731</v>
       </c>
       <c r="G522">
-        <v>319773</v>
+        <v>320612</v>
       </c>
       <c r="H522">
-        <v>18078</v>
+        <v>20912</v>
       </c>
       <c r="I522">
         <v>41483</v>
       </c>
       <c r="J522">
-        <v>2448690</v>
+        <v>2441976</v>
       </c>
       <c r="K522">
-        <v>156186</v>
+        <v>155455</v>
       </c>
       <c r="L522">
-        <v>2292503</v>
+        <v>2286521</v>
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.15">
@@ -15108,37 +15117,37 @@
         <v>42475</v>
       </c>
       <c r="B523">
-        <v>2680613</v>
+        <v>2678610</v>
       </c>
       <c r="C523">
-        <v>720975</v>
+        <v>616021</v>
       </c>
       <c r="D523">
-        <v>506466</v>
+        <v>505035</v>
       </c>
       <c r="E523">
-        <v>1364496</v>
+        <v>1468682</v>
       </c>
       <c r="F523">
-        <v>88677</v>
+        <v>88872</v>
       </c>
       <c r="G523">
-        <v>271686</v>
+        <v>272439</v>
       </c>
       <c r="H523">
-        <v>16888</v>
+        <v>19009</v>
       </c>
       <c r="I523">
-        <v>25743</v>
+        <v>25608</v>
       </c>
       <c r="J523">
-        <v>2366297</v>
+        <v>2361554</v>
       </c>
       <c r="K523">
-        <v>150931</v>
+        <v>150335</v>
       </c>
       <c r="L523">
-        <v>2215366</v>
+        <v>2211218</v>
       </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.15">
@@ -15146,37 +15155,37 @@
         <v>42505</v>
       </c>
       <c r="B524">
-        <v>2786681</v>
+        <v>2767844</v>
       </c>
       <c r="C524">
-        <v>743664</v>
+        <v>622639</v>
       </c>
       <c r="D524">
-        <v>541774</v>
+        <v>536119</v>
       </c>
       <c r="E524">
-        <v>1410614</v>
+        <v>1518351</v>
       </c>
       <c r="F524">
-        <v>90630</v>
+        <v>90735</v>
       </c>
       <c r="G524">
-        <v>297327</v>
+        <v>298044</v>
       </c>
       <c r="H524">
-        <v>17344</v>
+        <v>18764</v>
       </c>
       <c r="I524">
         <v>38561</v>
       </c>
       <c r="J524">
-        <v>2433449</v>
+        <v>2412475</v>
       </c>
       <c r="K524">
-        <v>155214</v>
+        <v>153577</v>
       </c>
       <c r="L524">
-        <v>2278234</v>
+        <v>2258898</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.15">
@@ -15184,37 +15193,37 @@
         <v>42536</v>
       </c>
       <c r="B525">
-        <v>2636140</v>
+        <v>2628164</v>
       </c>
       <c r="C525">
-        <v>696837</v>
+        <v>589857</v>
       </c>
       <c r="D525">
-        <v>491252</v>
+        <v>488158</v>
       </c>
       <c r="E525">
-        <v>1361588</v>
+        <v>1463590</v>
       </c>
       <c r="F525">
-        <v>86464</v>
+        <v>86558</v>
       </c>
       <c r="G525">
-        <v>258892</v>
+        <v>259498</v>
       </c>
       <c r="H525">
-        <v>17347</v>
+        <v>19331</v>
       </c>
       <c r="I525">
         <v>37047</v>
       </c>
       <c r="J525">
-        <v>2322854</v>
+        <v>2312288</v>
       </c>
       <c r="K525">
-        <v>148160</v>
+        <v>147199</v>
       </c>
       <c r="L525">
-        <v>2174694</v>
+        <v>2165089</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.15">
@@ -15222,37 +15231,37 @@
         <v>42566</v>
       </c>
       <c r="B526">
-        <v>2730488</v>
+        <v>2721210</v>
       </c>
       <c r="C526">
-        <v>713527</v>
+        <v>603497</v>
       </c>
       <c r="D526">
-        <v>508696</v>
+        <v>504249</v>
       </c>
       <c r="E526">
-        <v>1418808</v>
+        <v>1523883</v>
       </c>
       <c r="F526">
-        <v>89456</v>
+        <v>89582</v>
       </c>
       <c r="G526">
-        <v>273857</v>
+        <v>274540</v>
       </c>
       <c r="H526">
-        <v>20071</v>
+        <v>21890</v>
       </c>
       <c r="I526">
-        <v>15867</v>
+        <v>15866</v>
       </c>
       <c r="J526">
-        <v>2420694</v>
+        <v>2408915</v>
       </c>
       <c r="K526">
-        <v>154401</v>
+        <v>153350</v>
       </c>
       <c r="L526">
-        <v>2266293</v>
+        <v>2255564</v>
       </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.15">
@@ -15260,37 +15269,37 @@
         <v>42597</v>
       </c>
       <c r="B527">
-        <v>2725751</v>
+        <v>2722631</v>
       </c>
       <c r="C527">
-        <v>698631</v>
+        <v>590207</v>
       </c>
       <c r="D527">
-        <v>524231</v>
+        <v>520679</v>
       </c>
       <c r="E527">
-        <v>1413494</v>
+        <v>1521640</v>
       </c>
       <c r="F527">
-        <v>89395</v>
+        <v>90105</v>
       </c>
       <c r="G527">
-        <v>281692</v>
+        <v>282492</v>
       </c>
       <c r="H527">
-        <v>17629</v>
+        <v>19023</v>
       </c>
       <c r="I527">
-        <v>31311</v>
+        <v>31303</v>
       </c>
       <c r="J527">
-        <v>2395119</v>
+        <v>2389813</v>
       </c>
       <c r="K527">
-        <v>152770</v>
+        <v>152134</v>
       </c>
       <c r="L527">
-        <v>2242349</v>
+        <v>2237678</v>
       </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.15">
@@ -15298,37 +15307,37 @@
         <v>42628</v>
       </c>
       <c r="B528">
-        <v>2630104</v>
+        <v>2626213</v>
       </c>
       <c r="C528">
-        <v>691551</v>
+        <v>584167</v>
       </c>
       <c r="D528">
-        <v>505175</v>
+        <v>505551</v>
       </c>
       <c r="E528">
-        <v>1345959</v>
+        <v>1448961</v>
       </c>
       <c r="F528">
-        <v>87419</v>
+        <v>87534</v>
       </c>
       <c r="G528">
-        <v>272925</v>
+        <v>273711</v>
       </c>
       <c r="H528">
-        <v>15516</v>
+        <v>17090</v>
       </c>
       <c r="I528">
-        <v>38013</v>
+        <v>38011</v>
       </c>
       <c r="J528">
-        <v>2303650</v>
+        <v>2297402</v>
       </c>
       <c r="K528">
-        <v>146935</v>
+        <v>146252</v>
       </c>
       <c r="L528">
-        <v>2156714</v>
+        <v>2151150</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.15">
@@ -15336,37 +15345,37 @@
         <v>42658</v>
       </c>
       <c r="B529">
-        <v>2718264</v>
+        <v>2720187</v>
       </c>
       <c r="C529">
-        <v>709620</v>
+        <v>601760</v>
       </c>
       <c r="D529">
-        <v>537068</v>
+        <v>539447</v>
       </c>
       <c r="E529">
-        <v>1381578</v>
+        <v>1488769</v>
       </c>
       <c r="F529">
-        <v>89997</v>
+        <v>90212</v>
       </c>
       <c r="G529">
-        <v>296250</v>
+        <v>296954</v>
       </c>
       <c r="H529">
-        <v>17118</v>
+        <v>18567</v>
       </c>
       <c r="I529">
         <v>39987</v>
       </c>
       <c r="J529">
-        <v>2364909</v>
+        <v>2364679</v>
       </c>
       <c r="K529">
-        <v>150843</v>
+        <v>150534</v>
       </c>
       <c r="L529">
-        <v>2214067</v>
+        <v>2214145</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.15">
@@ -15374,37 +15383,37 @@
         <v>42689</v>
       </c>
       <c r="B530">
-        <v>2672624</v>
+        <v>2678247</v>
       </c>
       <c r="C530">
-        <v>675675</v>
+        <v>571539</v>
       </c>
       <c r="D530">
-        <v>550512</v>
+        <v>553695</v>
       </c>
       <c r="E530">
-        <v>1360829</v>
+        <v>1467124</v>
       </c>
       <c r="F530">
-        <v>85609</v>
+        <v>85889</v>
       </c>
       <c r="G530">
-        <v>309571</v>
+        <v>315978</v>
       </c>
       <c r="H530">
-        <v>15110</v>
+        <v>16554</v>
       </c>
       <c r="I530">
         <v>38221</v>
       </c>
       <c r="J530">
-        <v>2309723</v>
+        <v>2307494</v>
       </c>
       <c r="K530">
-        <v>147323</v>
+        <v>146894</v>
       </c>
       <c r="L530">
-        <v>2162400</v>
+        <v>2160600</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.15">
@@ -15412,37 +15421,37 @@
         <v>42719</v>
       </c>
       <c r="B531">
-        <v>2742243</v>
+        <v>2746543</v>
       </c>
       <c r="C531">
-        <v>691221</v>
+        <v>581295</v>
       </c>
       <c r="D531">
-        <v>568561</v>
+        <v>572343</v>
       </c>
       <c r="E531">
-        <v>1395601</v>
+        <v>1505663</v>
       </c>
       <c r="F531">
-        <v>86861</v>
+        <v>87242</v>
       </c>
       <c r="G531">
-        <v>329752</v>
+        <v>331292</v>
       </c>
       <c r="H531">
-        <v>16299</v>
+        <v>17899</v>
       </c>
       <c r="I531">
         <v>39797</v>
       </c>
       <c r="J531">
-        <v>2356396</v>
+        <v>2357556</v>
       </c>
       <c r="K531">
-        <v>150300</v>
+        <v>150081</v>
       </c>
       <c r="L531">
-        <v>2206096</v>
+        <v>2207475</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.15">
@@ -15450,16 +15459,37 @@
         <v>42750</v>
       </c>
       <c r="B532">
-        <v>2726954</v>
+        <v>2723628</v>
+      </c>
+      <c r="C532">
+        <v>525828</v>
+      </c>
+      <c r="D532">
+        <v>550704</v>
+      </c>
+      <c r="E532">
+        <v>1562121</v>
+      </c>
+      <c r="F532">
+        <v>84975</v>
+      </c>
+      <c r="G532">
+        <v>331690</v>
+      </c>
+      <c r="H532">
+        <v>22945</v>
+      </c>
+      <c r="I532">
+        <v>29563</v>
       </c>
       <c r="J532">
-        <v>2339155</v>
+        <v>2339431</v>
       </c>
       <c r="K532">
-        <v>149778</v>
+        <v>151984</v>
       </c>
       <c r="L532">
-        <v>2189377</v>
+        <v>2187447</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.15">
@@ -15467,16 +15497,37 @@
         <v>42781</v>
       </c>
       <c r="B533">
-        <v>2503737</v>
+        <v>2493267</v>
+      </c>
+      <c r="C533">
+        <v>472047</v>
+      </c>
+      <c r="D533">
+        <v>505985</v>
+      </c>
+      <c r="E533">
+        <v>1438680</v>
+      </c>
+      <c r="F533">
+        <v>76555</v>
+      </c>
+      <c r="G533">
+        <v>305432</v>
+      </c>
+      <c r="H533">
+        <v>17139</v>
+      </c>
+      <c r="I533">
+        <v>28108</v>
       </c>
       <c r="J533">
-        <v>2147988</v>
+        <v>2142588</v>
       </c>
       <c r="K533">
-        <v>144687</v>
+        <v>139196</v>
       </c>
       <c r="L533">
-        <v>2003301</v>
+        <v>2003393</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.15">
@@ -15484,16 +15535,37 @@
         <v>42809</v>
       </c>
       <c r="B534">
-        <v>2777679</v>
+        <v>2797117</v>
+      </c>
+      <c r="C534">
+        <v>543939</v>
+      </c>
+      <c r="D534">
+        <v>560762</v>
+      </c>
+      <c r="E534">
+        <v>1607345</v>
+      </c>
+      <c r="F534">
+        <v>85070</v>
+      </c>
+      <c r="G534">
+        <v>334324</v>
+      </c>
+      <c r="H534">
+        <v>17297</v>
+      </c>
+      <c r="I534">
+        <v>19697</v>
       </c>
       <c r="J534">
-        <v>2381223</v>
+        <v>2425799</v>
       </c>
       <c r="K534">
-        <v>162550</v>
+        <v>157595</v>
       </c>
       <c r="L534">
-        <v>2218673</v>
+        <v>2268204</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.15">
@@ -15501,16 +15573,37 @@
         <v>42840</v>
       </c>
       <c r="B535">
-        <v>2681680</v>
+        <v>2689967</v>
+      </c>
+      <c r="C535">
+        <v>517704</v>
+      </c>
+      <c r="D535">
+        <v>520882</v>
+      </c>
+      <c r="E535">
+        <v>1568742</v>
+      </c>
+      <c r="F535">
+        <v>82638</v>
+      </c>
+      <c r="G535">
+        <v>306345</v>
+      </c>
+      <c r="H535">
+        <v>17705</v>
+      </c>
+      <c r="I535">
+        <v>15485</v>
       </c>
       <c r="J535">
-        <v>2308058</v>
+        <v>2350432</v>
       </c>
       <c r="K535">
-        <v>156837</v>
+        <v>152698</v>
       </c>
       <c r="L535">
-        <v>2151221</v>
+        <v>2197733</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.15">
@@ -15518,16 +15611,37 @@
         <v>42870</v>
       </c>
       <c r="B536">
-        <v>2769754</v>
+        <v>2778965</v>
+      </c>
+      <c r="C536">
+        <v>516713</v>
+      </c>
+      <c r="D536">
+        <v>534122</v>
+      </c>
+      <c r="E536">
+        <v>1643892</v>
+      </c>
+      <c r="F536">
+        <v>84237</v>
+      </c>
+      <c r="G536">
+        <v>310411</v>
+      </c>
+      <c r="H536">
+        <v>19369</v>
+      </c>
+      <c r="I536">
+        <v>20445</v>
       </c>
       <c r="J536">
-        <v>2391147</v>
+        <v>2428739</v>
       </c>
       <c r="K536">
-        <v>165817</v>
+        <v>157786</v>
       </c>
       <c r="L536">
-        <v>2225330</v>
+        <v>2270953</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.15">
@@ -15535,16 +15649,37 @@
         <v>42901</v>
       </c>
       <c r="B537">
-        <v>2681604</v>
+        <v>2688422</v>
+      </c>
+      <c r="C537">
+        <v>506113</v>
+      </c>
+      <c r="D537">
+        <v>486284</v>
+      </c>
+      <c r="E537">
+        <v>1614519</v>
+      </c>
+      <c r="F537">
+        <v>81506</v>
+      </c>
+      <c r="G537">
+        <v>272596</v>
+      </c>
+      <c r="H537">
+        <v>22521</v>
+      </c>
+      <c r="I537">
+        <v>20128</v>
       </c>
       <c r="J537">
-        <v>2340784</v>
+        <v>2373176</v>
       </c>
       <c r="K537">
-        <v>161697</v>
+        <v>154176</v>
       </c>
       <c r="L537">
-        <v>2179087</v>
+        <v>2219000</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.15">
@@ -15552,16 +15687,37 @@
         <v>42931</v>
       </c>
       <c r="B538">
-        <v>2750099</v>
+        <v>2753997</v>
+      </c>
+      <c r="C538">
+        <v>518613</v>
+      </c>
+      <c r="D538">
+        <v>463533</v>
+      </c>
+      <c r="E538">
+        <v>1688557</v>
+      </c>
+      <c r="F538">
+        <v>83293</v>
+      </c>
+      <c r="G538">
+        <v>235041</v>
+      </c>
+      <c r="H538">
+        <v>19979</v>
+      </c>
+      <c r="I538">
+        <v>21404</v>
       </c>
       <c r="J538">
-        <v>2443431</v>
+        <v>2477573</v>
       </c>
       <c r="K538">
-        <v>167884</v>
+        <v>160958</v>
       </c>
       <c r="L538">
-        <v>2275547</v>
+        <v>2316614</v>
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.15">
@@ -15569,16 +15725,37 @@
         <v>42962</v>
       </c>
       <c r="B539">
-        <v>2764143</v>
+        <v>2769670</v>
+      </c>
+      <c r="C539">
+        <v>517848</v>
+      </c>
+      <c r="D539">
+        <v>475094</v>
+      </c>
+      <c r="E539">
+        <v>1694366</v>
+      </c>
+      <c r="F539">
+        <v>82362</v>
+      </c>
+      <c r="G539">
+        <v>249803</v>
+      </c>
+      <c r="H539">
+        <v>22704</v>
+      </c>
+      <c r="I539">
+        <v>20983</v>
       </c>
       <c r="J539">
-        <v>2443703</v>
+        <v>2476180</v>
       </c>
       <c r="K539">
-        <v>164440</v>
+        <v>160868</v>
       </c>
       <c r="L539">
-        <v>2279263</v>
+        <v>2315312</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.15">
@@ -15586,16 +15763,37 @@
         <v>42993</v>
       </c>
       <c r="B540">
-        <v>2757416</v>
+        <v>2763285</v>
+      </c>
+      <c r="C540">
+        <v>500187</v>
+      </c>
+      <c r="D540">
+        <v>504550</v>
+      </c>
+      <c r="E540">
+        <v>1677823</v>
+      </c>
+      <c r="F540">
+        <v>80726</v>
+      </c>
+      <c r="G540">
+        <v>276765</v>
+      </c>
+      <c r="H540">
+        <v>26151</v>
+      </c>
+      <c r="I540">
+        <v>22157</v>
       </c>
       <c r="J540">
-        <v>2408242</v>
+        <v>2438213</v>
       </c>
       <c r="K540">
-        <v>157957</v>
+        <v>158401</v>
       </c>
       <c r="L540">
-        <v>2250285</v>
+        <v>2279811</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.15">
@@ -15603,16 +15801,37 @@
         <v>43023</v>
       </c>
       <c r="B541">
-        <v>2888227</v>
+        <v>2911373</v>
+      </c>
+      <c r="C541">
+        <v>526830</v>
+      </c>
+      <c r="D541">
+        <v>534911</v>
+      </c>
+      <c r="E541">
+        <v>1766484</v>
+      </c>
+      <c r="F541">
+        <v>83147</v>
+      </c>
+      <c r="G541">
+        <v>301032</v>
+      </c>
+      <c r="H541">
+        <v>24438</v>
+      </c>
+      <c r="I541">
+        <v>21648</v>
       </c>
       <c r="J541">
-        <v>2506570</v>
+        <v>2564255</v>
       </c>
       <c r="K541">
-        <v>177252</v>
+        <v>166590</v>
       </c>
       <c r="L541">
-        <v>2329318</v>
+        <v>2397665</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.15">
@@ -15620,16 +15839,37 @@
         <v>43054</v>
       </c>
       <c r="B542">
-        <v>2875410</v>
+        <v>2897003</v>
+      </c>
+      <c r="C542">
+        <v>496469</v>
+      </c>
+      <c r="D542">
+        <v>534028</v>
+      </c>
+      <c r="E542">
+        <v>1787812</v>
+      </c>
+      <c r="F542">
+        <v>78694</v>
+      </c>
+      <c r="G542">
+        <v>297362</v>
+      </c>
+      <c r="H542">
+        <v>20707</v>
+      </c>
+      <c r="I542">
+        <v>20162</v>
       </c>
       <c r="J542">
-        <v>2496887</v>
+        <v>2558771</v>
       </c>
       <c r="K542">
-        <v>175754</v>
+        <v>166233</v>
       </c>
       <c r="L542">
-        <v>2321134</v>
+        <v>2392537</v>
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.15">
@@ -15637,16 +15877,31 @@
         <v>43084</v>
       </c>
       <c r="B543">
-        <v>3001122</v>
+        <v>3025419</v>
+      </c>
+      <c r="C543">
+        <v>519127</v>
+      </c>
+      <c r="D543">
+        <v>546583</v>
+      </c>
+      <c r="E543">
+        <v>1877261</v>
+      </c>
+      <c r="F543">
+        <v>82449</v>
+      </c>
+      <c r="I543">
+        <v>24801</v>
       </c>
       <c r="J543">
-        <v>2606842</v>
+        <v>2628395</v>
       </c>
       <c r="K543">
-        <v>175088</v>
+        <v>170757</v>
       </c>
       <c r="L543">
-        <v>2431754</v>
+        <v>2457638</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.15">
@@ -15654,16 +15909,37 @@
         <v>43115</v>
       </c>
       <c r="B544">
-        <v>2957944</v>
+        <v>2986315</v>
+      </c>
+      <c r="C544">
+        <v>508723</v>
+      </c>
+      <c r="D544">
+        <v>547811</v>
+      </c>
+      <c r="E544">
+        <v>1847934</v>
+      </c>
+      <c r="F544">
+        <v>81848</v>
+      </c>
+      <c r="G544">
+        <v>325208</v>
+      </c>
+      <c r="H544">
+        <v>28760</v>
+      </c>
+      <c r="I544">
+        <v>19859</v>
       </c>
       <c r="J544">
-        <v>2565739</v>
+        <v>2612489</v>
       </c>
       <c r="K544">
-        <v>169874</v>
+        <v>177857</v>
       </c>
       <c r="L544">
-        <v>2395865</v>
+        <v>2434632</v>
       </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.15">
@@ -15671,16 +15947,37 @@
         <v>43146</v>
       </c>
       <c r="B545">
-        <v>2722296</v>
+        <v>2746378</v>
+      </c>
+      <c r="C545">
+        <v>460494</v>
+      </c>
+      <c r="D545">
+        <v>502749</v>
+      </c>
+      <c r="E545">
+        <v>1708455</v>
+      </c>
+      <c r="F545">
+        <v>74680</v>
+      </c>
+      <c r="G545">
+        <v>295915</v>
+      </c>
+      <c r="H545">
+        <v>21737</v>
+      </c>
+      <c r="I545">
+        <v>18330</v>
       </c>
       <c r="J545">
-        <v>2365443</v>
+        <v>2410396</v>
       </c>
       <c r="K545">
-        <v>161370</v>
+        <v>164099</v>
       </c>
       <c r="L545">
-        <v>2204073</v>
+        <v>2246298</v>
       </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.15">
@@ -15688,16 +15985,37 @@
         <v>43174</v>
       </c>
       <c r="B546">
-        <v>3046610</v>
+        <v>3084539</v>
+      </c>
+      <c r="C546">
+        <v>523188</v>
+      </c>
+      <c r="D546">
+        <v>556388</v>
+      </c>
+      <c r="E546">
+        <v>1922439</v>
+      </c>
+      <c r="F546">
+        <v>82525</v>
+      </c>
+      <c r="G546">
+        <v>315365</v>
+      </c>
+      <c r="H546">
+        <v>24246</v>
+      </c>
+      <c r="I546">
+        <v>24245</v>
       </c>
       <c r="J546">
-        <v>2651289</v>
+        <v>2720684</v>
       </c>
       <c r="K546">
-        <v>186253</v>
+        <v>185223</v>
       </c>
       <c r="L546">
-        <v>2465036</v>
+        <v>2535461</v>
       </c>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.15">
@@ -15705,16 +16023,37 @@
         <v>43205</v>
       </c>
       <c r="B547">
-        <v>2958427</v>
+        <v>2979322</v>
+      </c>
+      <c r="C547">
+        <v>507199</v>
+      </c>
+      <c r="D547">
+        <v>526058</v>
+      </c>
+      <c r="E547">
+        <v>1867484</v>
+      </c>
+      <c r="F547">
+        <v>78582</v>
+      </c>
+      <c r="G547">
+        <v>311015</v>
+      </c>
+      <c r="H547">
+        <v>28053</v>
+      </c>
+      <c r="I547">
+        <v>23206</v>
       </c>
       <c r="J547">
-        <v>2576432</v>
+        <v>2617048</v>
       </c>
       <c r="K547">
-        <v>183670</v>
+        <v>178167</v>
       </c>
       <c r="L547">
-        <v>2392762</v>
+        <v>2438880</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.15">
@@ -15722,20 +16061,596 @@
         <v>43235</v>
       </c>
       <c r="B548">
-        <v>3071135</v>
+        <v>3097136</v>
+      </c>
+      <c r="C548">
+        <v>522658</v>
+      </c>
+      <c r="D548">
+        <v>532785</v>
+      </c>
+      <c r="E548">
+        <v>1960153</v>
+      </c>
+      <c r="F548">
+        <v>81539</v>
+      </c>
+      <c r="G548">
+        <v>313683</v>
+      </c>
+      <c r="H548">
+        <v>31454</v>
+      </c>
+      <c r="I548">
+        <v>22444</v>
       </c>
       <c r="J548">
-        <v>2682521</v>
+        <v>2729555</v>
       </c>
       <c r="K548">
-        <v>191542</v>
+        <v>185827</v>
       </c>
       <c r="L548">
-        <v>2490979</v>
+        <v>2543728</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A549" s="14"/>
+      <c r="A549" s="14">
+        <v>43266</v>
+      </c>
+      <c r="B549">
+        <v>2961223</v>
+      </c>
+      <c r="C549">
+        <v>517655</v>
+      </c>
+      <c r="D549">
+        <v>468950</v>
+      </c>
+      <c r="E549">
+        <v>1895851</v>
+      </c>
+      <c r="F549">
+        <v>78767</v>
+      </c>
+      <c r="G549">
+        <v>260993</v>
+      </c>
+      <c r="H549">
+        <v>31861</v>
+      </c>
+      <c r="I549">
+        <v>23056</v>
+      </c>
+      <c r="J549">
+        <v>2645313</v>
+      </c>
+      <c r="K549">
+        <v>180092</v>
+      </c>
+      <c r="L549">
+        <v>2465221</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A550" s="14">
+        <v>43296</v>
+      </c>
+      <c r="B550">
+        <v>3096945</v>
+      </c>
+      <c r="C550">
+        <v>529503</v>
+      </c>
+      <c r="D550">
+        <v>492486</v>
+      </c>
+      <c r="E550">
+        <v>1993394</v>
+      </c>
+      <c r="F550">
+        <v>81562</v>
+      </c>
+      <c r="G550">
+        <v>261851</v>
+      </c>
+      <c r="H550">
+        <v>52619</v>
+      </c>
+      <c r="I550">
+        <v>23633</v>
+      </c>
+      <c r="J550">
+        <v>2758842</v>
+      </c>
+      <c r="K550">
+        <v>187821</v>
+      </c>
+      <c r="L550">
+        <v>2571021</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A551" s="14">
+        <v>43327</v>
+      </c>
+      <c r="B551">
+        <v>3165158</v>
+      </c>
+      <c r="C551">
+        <v>537291</v>
+      </c>
+      <c r="D551">
+        <v>508661</v>
+      </c>
+      <c r="E551">
+        <v>2037799</v>
+      </c>
+      <c r="F551">
+        <v>81407</v>
+      </c>
+      <c r="G551">
+        <v>273432</v>
+      </c>
+      <c r="H551">
+        <v>53077</v>
+      </c>
+      <c r="I551">
+        <v>23908</v>
+      </c>
+      <c r="J551">
+        <v>2814741</v>
+      </c>
+      <c r="K551">
+        <v>191626</v>
+      </c>
+      <c r="L551">
+        <v>2623114</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A552" s="14">
+        <v>43358</v>
+      </c>
+      <c r="B552">
+        <v>3141861</v>
+      </c>
+      <c r="C552">
+        <v>543949</v>
+      </c>
+      <c r="D552">
+        <v>508949</v>
+      </c>
+      <c r="E552">
+        <v>2010734</v>
+      </c>
+      <c r="F552">
+        <v>78229</v>
+      </c>
+      <c r="G552">
+        <v>287063</v>
+      </c>
+      <c r="H552">
+        <v>34977</v>
+      </c>
+      <c r="I552">
+        <v>22905</v>
+      </c>
+      <c r="J552">
+        <v>2796916</v>
+      </c>
+      <c r="K552">
+        <v>190413</v>
+      </c>
+      <c r="L552">
+        <v>2606504</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A553" s="14">
+        <v>43388</v>
+      </c>
+      <c r="B553">
+        <v>3270299</v>
+      </c>
+      <c r="C553">
+        <v>561269</v>
+      </c>
+      <c r="D553">
+        <v>524051</v>
+      </c>
+      <c r="E553">
+        <v>2104283</v>
+      </c>
+      <c r="F553">
+        <v>80695</v>
+      </c>
+      <c r="G553">
+        <v>301240</v>
+      </c>
+      <c r="H553">
+        <v>58868</v>
+      </c>
+      <c r="I553">
+        <v>15053</v>
+      </c>
+      <c r="J553">
+        <v>2895137</v>
+      </c>
+      <c r="K553">
+        <v>197099</v>
+      </c>
+      <c r="L553">
+        <v>2698038</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A554" s="14">
+        <v>43419</v>
+      </c>
+      <c r="B554">
+        <v>3234886</v>
+      </c>
+      <c r="C554">
+        <v>549297</v>
+      </c>
+      <c r="D554">
+        <v>543237</v>
+      </c>
+      <c r="E554">
+        <v>2068036</v>
+      </c>
+      <c r="F554">
+        <v>74316</v>
+      </c>
+      <c r="G554">
+        <v>309523</v>
+      </c>
+      <c r="H554">
+        <v>42658</v>
+      </c>
+      <c r="I554">
+        <v>12471</v>
+      </c>
+      <c r="J554">
+        <v>2870234</v>
+      </c>
+      <c r="K554">
+        <v>195404</v>
+      </c>
+      <c r="L554">
+        <v>2674830</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A555" s="14">
+        <v>43449</v>
+      </c>
+      <c r="B555">
+        <v>3365311</v>
+      </c>
+      <c r="C555">
+        <v>588774</v>
+      </c>
+      <c r="D555">
+        <v>563588</v>
+      </c>
+      <c r="E555">
+        <v>2133908</v>
+      </c>
+      <c r="F555">
+        <v>79041</v>
+      </c>
+      <c r="G555">
+        <v>328985</v>
+      </c>
+      <c r="H555">
+        <v>60036</v>
+      </c>
+      <c r="I555">
+        <v>24348</v>
+      </c>
+      <c r="J555">
+        <v>2951941</v>
+      </c>
+      <c r="K555">
+        <v>200967</v>
+      </c>
+      <c r="L555">
+        <v>2750975</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A556" s="14">
+        <v>43480</v>
+      </c>
+      <c r="B556">
+        <v>3357370</v>
+      </c>
+      <c r="J556">
+        <v>2951785</v>
+      </c>
+      <c r="K556">
+        <v>204646</v>
+      </c>
+      <c r="L556">
+        <v>2747140</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A557" s="14">
+        <v>43511</v>
+      </c>
+      <c r="B557">
+        <v>3050698</v>
+      </c>
+      <c r="J557">
+        <v>2694335</v>
+      </c>
+      <c r="K557">
+        <v>190795</v>
+      </c>
+      <c r="L557">
+        <v>2503539</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A558" s="14">
+        <v>43539</v>
+      </c>
+      <c r="B558">
+        <v>3387137</v>
+      </c>
+      <c r="J558">
+        <v>3000840</v>
+      </c>
+      <c r="K558">
+        <v>213078</v>
+      </c>
+      <c r="L558">
+        <v>2787763</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A559" s="14">
+        <v>43570</v>
+      </c>
+      <c r="B559">
+        <v>3307221</v>
+      </c>
+      <c r="J559">
+        <v>2919841</v>
+      </c>
+      <c r="K559">
+        <v>207694</v>
+      </c>
+      <c r="L559">
+        <v>2712147</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A560" s="14">
+        <v>43600</v>
+      </c>
+      <c r="B560">
+        <v>3392263</v>
+      </c>
+      <c r="J560">
+        <v>3003926</v>
+      </c>
+      <c r="K560">
+        <v>216366</v>
+      </c>
+      <c r="L560">
+        <v>2787560</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A561" s="14">
+        <v>43631</v>
+      </c>
+      <c r="B561">
+        <v>3298699</v>
+      </c>
+      <c r="J561">
+        <v>2943471</v>
+      </c>
+      <c r="K561">
+        <v>207516</v>
+      </c>
+      <c r="L561">
+        <v>2735955</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A562" s="14">
+        <v>43661</v>
+      </c>
+      <c r="B562">
+        <v>3383779</v>
+      </c>
+      <c r="J562">
+        <v>3039774</v>
+      </c>
+      <c r="K562">
+        <v>210176</v>
+      </c>
+      <c r="L562">
+        <v>2829598</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A563" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B563">
+        <v>3444752</v>
+      </c>
+      <c r="J563">
+        <v>3105344</v>
+      </c>
+      <c r="K563">
+        <v>212547</v>
+      </c>
+      <c r="L563">
+        <v>2892797</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A564" s="14">
+        <v>43723</v>
+      </c>
+      <c r="B564">
+        <v>3400527</v>
+      </c>
+      <c r="J564">
+        <v>3046751</v>
+      </c>
+      <c r="K564">
+        <v>215081</v>
+      </c>
+      <c r="L564">
+        <v>2831670</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A565" s="14">
+        <v>43753</v>
+      </c>
+      <c r="B565">
+        <v>3577153</v>
+      </c>
+      <c r="J565">
+        <v>3193166</v>
+      </c>
+      <c r="K565">
+        <v>223928</v>
+      </c>
+      <c r="L565">
+        <v>2969238</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A566" s="14">
+        <v>43784</v>
+      </c>
+      <c r="B566">
+        <v>3498543</v>
+      </c>
+      <c r="J566">
+        <v>3102924</v>
+      </c>
+      <c r="K566">
+        <v>215468</v>
+      </c>
+      <c r="L566">
+        <v>2887457</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A567" s="14">
+        <v>43814</v>
+      </c>
+      <c r="B567">
+        <v>3606346</v>
+      </c>
+      <c r="J567">
+        <v>3194898</v>
+      </c>
+      <c r="K567">
+        <v>222716</v>
+      </c>
+      <c r="L567">
+        <v>2972182</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A568" s="14">
+        <v>43845</v>
+      </c>
+      <c r="B568">
+        <v>3593508</v>
+      </c>
+      <c r="J568">
+        <v>3172003</v>
+      </c>
+      <c r="K568">
+        <v>233649</v>
+      </c>
+      <c r="L568">
+        <v>2938354</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A569" s="14">
+        <v>43876</v>
+      </c>
+      <c r="B569">
+        <v>3345439</v>
+      </c>
+      <c r="J569">
+        <v>2949884</v>
+      </c>
+      <c r="K569">
+        <v>211954</v>
+      </c>
+      <c r="L569">
+        <v>2737930</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A570" s="14">
+        <v>43905</v>
+      </c>
+      <c r="B570">
+        <v>3565004</v>
+      </c>
+      <c r="J570">
+        <v>3156571</v>
+      </c>
+      <c r="K570">
+        <v>234882</v>
+      </c>
+      <c r="L570">
+        <v>2921689</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A571" s="14">
+        <v>43936</v>
+      </c>
+      <c r="B571">
+        <v>3373152</v>
+      </c>
+      <c r="J571">
+        <v>2990647</v>
+      </c>
+      <c r="K571">
+        <v>213528</v>
+      </c>
+      <c r="L571">
+        <v>2777119</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A572" s="14">
+        <v>43966</v>
+      </c>
+      <c r="B572">
+        <v>3301694</v>
+      </c>
+      <c r="J572">
+        <v>2925001</v>
+      </c>
+      <c r="K572">
+        <v>212018</v>
+      </c>
+      <c r="L572">
+        <v>2712983</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A573" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
